--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,10 @@
     <t>Fzd4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H2">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.6320075</v>
+        <v>30.801072</v>
       </c>
       <c r="N2">
-        <v>67.264015</v>
+        <v>61.602144</v>
       </c>
       <c r="O2">
-        <v>0.3908110491225105</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P2">
-        <v>0.3281482467916435</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q2">
-        <v>155.34920225916</v>
+        <v>3.86907665928</v>
       </c>
       <c r="R2">
-        <v>932.0952135549601</v>
+        <v>15.47630663712</v>
       </c>
       <c r="S2">
-        <v>0.3908110491225105</v>
+        <v>0.01422617552870956</v>
       </c>
       <c r="T2">
-        <v>0.3281482467916435</v>
+        <v>0.008651921544572385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H3">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +623,22 @@
         <v>36.045639</v>
       </c>
       <c r="O3">
-        <v>0.1396193194224409</v>
+        <v>0.2096145064786482</v>
       </c>
       <c r="P3">
-        <v>0.1758490515669409</v>
+        <v>0.2843011610923331</v>
       </c>
       <c r="Q3">
-        <v>55.49932618574401</v>
+        <v>1.509290980995</v>
       </c>
       <c r="R3">
-        <v>499.493935671696</v>
+        <v>9.055745885970001</v>
       </c>
       <c r="S3">
-        <v>0.1396193194224409</v>
+        <v>0.005549499353556039</v>
       </c>
       <c r="T3">
-        <v>0.1758490515669409</v>
+        <v>0.005062551729562832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H4">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.122567</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N4">
-        <v>0.367701</v>
+        <v>0.391675</v>
       </c>
       <c r="O4">
-        <v>0.001424254495001488</v>
+        <v>0.002277689176907768</v>
       </c>
       <c r="P4">
-        <v>0.001793833426290924</v>
+        <v>0.003089240761436898</v>
       </c>
       <c r="Q4">
-        <v>0.566147758896</v>
+        <v>0.01640008504166667</v>
       </c>
       <c r="R4">
-        <v>5.095329830064</v>
+        <v>0.09840051025</v>
       </c>
       <c r="S4">
-        <v>0.001424254495001488</v>
+        <v>6.030133518520953E-05</v>
       </c>
       <c r="T4">
-        <v>0.001793833426290924</v>
+        <v>5.501012060506188E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H5">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,42 +741,42 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.558276</v>
+        <v>14.373679</v>
       </c>
       <c r="N5">
-        <v>39.116552</v>
+        <v>28.747358</v>
       </c>
       <c r="O5">
-        <v>0.2272713088146052</v>
+        <v>0.2507597351680332</v>
       </c>
       <c r="P5">
-        <v>0.1908305348607893</v>
+        <v>0.2267377548151379</v>
       </c>
       <c r="Q5">
-        <v>90.34139797228801</v>
+        <v>1.805549687585</v>
       </c>
       <c r="R5">
-        <v>542.048387833728</v>
+        <v>7.22219875034</v>
       </c>
       <c r="S5">
-        <v>0.2272713088146052</v>
+        <v>0.006638810507872146</v>
       </c>
       <c r="T5">
-        <v>0.1908305348607893</v>
+        <v>0.004037519960826938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,54 +791,54 @@
         <v>13.857264</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9735252132746771</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9821929966444328</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.59650833333333</v>
+        <v>30.801072</v>
       </c>
       <c r="N6">
-        <v>61.789525</v>
+        <v>61.602144</v>
       </c>
       <c r="O6">
-        <v>0.2393357883858265</v>
+        <v>0.5373480691764108</v>
       </c>
       <c r="P6">
-        <v>0.3014408863169769</v>
+        <v>0.485871843331092</v>
       </c>
       <c r="Q6">
-        <v>95.13708448440001</v>
+        <v>142.272862062336</v>
       </c>
       <c r="R6">
-        <v>856.2337603596</v>
+        <v>853.637172374016</v>
       </c>
       <c r="S6">
-        <v>0.2393357883858265</v>
+        <v>0.5231218936477012</v>
       </c>
       <c r="T6">
-        <v>0.3014408863169769</v>
+        <v>0.4772199217865197</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +853,164 @@
         <v>13.857264</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.9735252132746771</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.9821929966444328</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>12.015213</v>
+      </c>
+      <c r="N7">
+        <v>36.045639</v>
+      </c>
+      <c r="O7">
+        <v>0.2096145064786482</v>
+      </c>
+      <c r="P7">
+        <v>0.2843011610923331</v>
+      </c>
+      <c r="Q7">
+        <v>55.49932618574401</v>
+      </c>
+      <c r="R7">
+        <v>499.493935671696</v>
+      </c>
+      <c r="S7">
+        <v>0.2040650071250922</v>
+      </c>
+      <c r="T7">
+        <v>0.2792386093627703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H8">
+        <v>13.857264</v>
+      </c>
+      <c r="I8">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J8">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M7">
-        <v>0.1323796666666666</v>
-      </c>
-      <c r="N7">
-        <v>0.397139</v>
-      </c>
-      <c r="O7">
-        <v>0.001538279759615545</v>
-      </c>
-      <c r="P7">
-        <v>0.001937447037358482</v>
-      </c>
-      <c r="Q7">
-        <v>0.6114733297439999</v>
-      </c>
-      <c r="R7">
-        <v>5.503259967696</v>
-      </c>
-      <c r="S7">
-        <v>0.001538279759615545</v>
-      </c>
-      <c r="T7">
-        <v>0.001937447037358482</v>
+      <c r="M8">
+        <v>0.1305583333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.391675</v>
+      </c>
+      <c r="O8">
+        <v>0.002277689176907768</v>
+      </c>
+      <c r="P8">
+        <v>0.003089240761436898</v>
+      </c>
+      <c r="Q8">
+        <v>0.6030604308</v>
+      </c>
+      <c r="R8">
+        <v>5.427543877200001</v>
+      </c>
+      <c r="S8">
+        <v>0.002217387841722558</v>
+      </c>
+      <c r="T8">
+        <v>0.003034230640831837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H9">
+        <v>13.857264</v>
+      </c>
+      <c r="I9">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J9">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>14.373679</v>
+      </c>
+      <c r="N9">
+        <v>28.747358</v>
+      </c>
+      <c r="O9">
+        <v>0.2507597351680332</v>
+      </c>
+      <c r="P9">
+        <v>0.2267377548151379</v>
+      </c>
+      <c r="Q9">
+        <v>66.39328818475201</v>
+      </c>
+      <c r="R9">
+        <v>398.3597291085121</v>
+      </c>
+      <c r="S9">
+        <v>0.2441209246601611</v>
+      </c>
+      <c r="T9">
+        <v>0.2227002348543109</v>
       </c>
     </row>
   </sheetData>
